--- a/pred_ohlcv/54_21/2019-10-24 MIX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-24 MIX ohlcv.xlsx
@@ -1380,7 +1380,7 @@
         <v>4417615.504675691</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>4341087.081251383</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>4322329.761351383</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>4322329.761351383</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>4321024.802051383</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-8720947.563055543</v>
       </c>
       <c r="H349">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-8720947.563055543</v>
       </c>
       <c r="H350">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-8720967.575555542</v>
       </c>
       <c r="H351">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-8574495.104755543</v>
       </c>
       <c r="H352">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-8626829.790955544</v>
       </c>
       <c r="H353">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-8608119.396755543</v>
       </c>
       <c r="H354">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-8608119.396755543</v>
       </c>
       <c r="H355">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-8608119.396755543</v>
       </c>
       <c r="H356">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-8606873.017947722</v>
       </c>
       <c r="H359">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-8481337.707947722</v>
       </c>
       <c r="H360">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-8310342.728547722</v>
       </c>
       <c r="H361">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-8365913.598847722</v>
       </c>
       <c r="H362">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-8296163.017547722</v>
       </c>
       <c r="H363">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-8088501.094547722</v>
       </c>
       <c r="H364">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-8576576.214416608</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-8582996.214416608</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-8682996.214416608</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-8398560.408816608</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-8270156.682916608</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-7938393.750416608</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-7938393.750416608</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-7938393.750416608</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-7701688.720116608</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-7701688.720116608</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-7703627.977916608</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-7774663.294716608</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-7836412.830116608</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-8359963.538208588</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-8529963.538208589</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-8529598.435608588</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-8839657.334408589</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-8839647.322408589</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-8909027.129808588</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-8659189.186308589</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-8283526.335608589</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-8283526.335608589</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-8283526.335608589</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-8292369.911608589</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-8061790.444808589</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-8112733.26380859</v>
       </c>
       <c r="H430">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-8119143.93220859</v>
       </c>
       <c r="H431">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-8098992.79010859</v>
       </c>
       <c r="H432">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-9544480.86990859</v>
       </c>
       <c r="H456">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-9543380.86990859</v>
       </c>
       <c r="H457">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-9543380.86990859</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>-9801409.792608589</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>-9801409.792608589</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-9929528.326708589</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-9864242.883808589</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-9713857.768434944</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-9368969.663434943</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>-4247225.954998692</v>
       </c>
       <c r="H481">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>-2871433.652095446</v>
       </c>
       <c r="H482">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>-180203.4929240174</v>
       </c>
       <c r="H483">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-372893.4897645615</v>
       </c>
       <c r="H484">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>-13327.92156456149</v>
       </c>
       <c r="H485">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>-15347.87156456149</v>
       </c>
       <c r="H486">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>-1692699.386629021</v>
       </c>
       <c r="H492">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>-4282318.684329022</v>
       </c>
       <c r="H495">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>-3931973.601429021</v>
       </c>
       <c r="H499">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>-3226771.200729021</v>
       </c>
       <c r="H500">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>-3575163.145529022</v>
       </c>
       <c r="H501">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>-3983626.424729021</v>
       </c>
       <c r="H502">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>-4935731.260929021</v>
       </c>
       <c r="H503">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-24 MIX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-24 MIX ohlcv.xlsx
@@ -1380,7 +1380,7 @@
         <v>4417615.504675691</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>4341087.081251383</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>4322329.761351383</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>4322329.761351383</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>4321024.802051383</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-8574495.104755543</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-8626829.790955544</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-8608119.396755543</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-8608119.396755543</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-8608119.396755543</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-8606873.017947722</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-8481337.707947722</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-8310342.728547722</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-8365913.598847722</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-8296163.017547722</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-8088501.094547722</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-8088501.094547722</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-8088501.094547722</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-8085945.174612526</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-8085945.174612526</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-8576576.214416608</v>
       </c>
       <c r="H376">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-8582996.214416608</v>
       </c>
       <c r="H377">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-8682996.214416608</v>
       </c>
       <c r="H379">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-8398560.408816608</v>
       </c>
       <c r="H383">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-8270156.682916608</v>
       </c>
       <c r="H384">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-7938393.750416608</v>
       </c>
       <c r="H387">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-7938393.750416608</v>
       </c>
       <c r="H388">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-7701688.720116608</v>
       </c>
       <c r="H389">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-7701688.720116608</v>
       </c>
       <c r="H390">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-7703627.977916608</v>
       </c>
       <c r="H391">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-7774663.294716608</v>
       </c>
       <c r="H392">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-7836412.830116608</v>
       </c>
       <c r="H393">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-8529963.538208589</v>
       </c>
       <c r="H410">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-8529598.435608588</v>
       </c>
       <c r="H411">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-8839657.334408589</v>
       </c>
       <c r="H412">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-8839647.322408589</v>
       </c>
       <c r="H413">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-8909027.129808588</v>
       </c>
       <c r="H414">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-8659189.186308589</v>
       </c>
       <c r="H415">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-8283526.335608589</v>
       </c>
       <c r="H416">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-8283526.335608589</v>
       </c>
       <c r="H417">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-8283526.335608589</v>
       </c>
       <c r="H418">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-8292369.911608589</v>
       </c>
       <c r="H419">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-8061790.444808589</v>
       </c>
       <c r="H420">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-9543380.86990859</v>
       </c>
       <c r="H462">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>-9801409.792608589</v>
       </c>
       <c r="H463">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>-9801409.792608589</v>
       </c>
       <c r="H464">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-9929528.326708589</v>
       </c>
       <c r="H465">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-9927567.842108589</v>
       </c>
       <c r="H466">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-9864242.883808589</v>
       </c>
       <c r="H467">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-9713857.768434944</v>
       </c>
       <c r="H468">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-9368969.663434943</v>
       </c>
       <c r="H469">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>-4247225.954998692</v>
       </c>
       <c r="H481">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>-2871433.652095446</v>
       </c>
       <c r="H482">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>-180203.4929240174</v>
       </c>
       <c r="H483">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-372893.4897645615</v>
       </c>
       <c r="H484">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>-13327.92156456149</v>
       </c>
       <c r="H485">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>-15347.87156456149</v>
       </c>
       <c r="H486">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>-2159223.207876535</v>
       </c>
       <c r="H491">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>-1692699.386629021</v>
       </c>
       <c r="H492">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>-2143336.318229022</v>
       </c>
       <c r="H493">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>-3393487.712629022</v>
       </c>
       <c r="H494">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>-4282318.684329022</v>
       </c>
       <c r="H495">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>-3931973.601429021</v>
       </c>
       <c r="H499">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>-3226771.200729021</v>
       </c>
       <c r="H500">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>-3575163.145529022</v>
       </c>
       <c r="H501">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>-3983626.424729021</v>
       </c>
       <c r="H502">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>-4935731.260929021</v>
       </c>
       <c r="H503">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
